--- a/code/ТКП.xlsx
+++ b/code/ТКП.xlsx
@@ -462,11 +462,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -474,92 +537,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,16 +619,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -883,303 +900,303 @@
   <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="54" width="13.28515625" customWidth="1"/>
+    <col min="1" max="54" width="13.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="10" t="str">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="25" t="str">
         <f>"Давление настройки без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление настройки без противодавления, (изб.)</v>
       </c>
-      <c r="AI1" s="10" t="str">
+      <c r="AI1" s="25" t="str">
         <f>"Давление начала открытия без противодавления, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление начала открытия без противодавления, не более (изб.)</v>
       </c>
-      <c r="AJ1" s="10" t="str">
+      <c r="AJ1" s="25" t="str">
         <f>"Давление полного открытия без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление полного открытия без противодавления, (изб.)</v>
       </c>
-      <c r="AK1" s="11" t="str">
+      <c r="AK1" s="32" t="str">
         <f>"Противодавление статическое или до срабатывания, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Противодавление статическое или до срабатывания, (изб.)</v>
       </c>
-      <c r="AL1" s="10" t="str">
+      <c r="AL1" s="25" t="str">
         <f>"Давление настройки, "&amp;'[1]Версия отдела продаж'!C25&amp;" (изб.)"</f>
         <v>Давление настройки,  (изб.)</v>
       </c>
-      <c r="AM1" s="10" t="str">
+      <c r="AM1" s="25" t="str">
         <f>"Давление начала открытия с противодавлением, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление начала открытия с противодавлением, не более (изб.)</v>
       </c>
-      <c r="AN1" s="10" t="str">
+      <c r="AN1" s="25" t="str">
         <f>"Давление полного открытия с противодавлением, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление полного открытия с противодавлением, (изб.)</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="6" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AX1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BB1" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20" t="s">
+    <row r="2" spans="1:54" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="25" t="str">
+      <c r="AF2" s="6" t="str">
         <f>IF('[1]Версия отдела продаж'!B6="Пружинный","Пружина №","Фильтр")</f>
         <v>Фильтр</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="23" t="s">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="23" t="s">
+      <c r="AP2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AR2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AS2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="22" t="s">
+      <c r="AU2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="23" t="s">
+      <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="27"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="34"/>
     </row>
-    <row r="3" spans="1:54" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+    <row r="3" spans="1:54" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="33" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1192,11 +1209,6 @@
     <mergeCell ref="AY1:AY2"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1204,12 +1216,17 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:AG1"/>
     <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/ТКП.xlsx
+++ b/code/ТКП.xlsx
@@ -518,65 +518,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,17 +618,20 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="25">
+          <cell r="C25"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -900,7 +903,7 @@
   <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,129 +912,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="25" t="str">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="28" t="str">
         <f>"Давление настройки без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление настройки без противодавления, (изб.)</v>
       </c>
-      <c r="AI1" s="25" t="str">
+      <c r="AI1" s="28" t="str">
         <f>"Давление начала открытия без противодавления, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление начала открытия без противодавления, не более (изб.)</v>
       </c>
-      <c r="AJ1" s="25" t="str">
+      <c r="AJ1" s="28" t="str">
         <f>"Давление полного открытия без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление полного открытия без противодавления, (изб.)</v>
       </c>
-      <c r="AK1" s="32" t="str">
+      <c r="AK1" s="35" t="str">
         <f>"Противодавление статическое или до срабатывания, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Противодавление статическое или до срабатывания, (изб.)</v>
       </c>
-      <c r="AL1" s="25" t="str">
+      <c r="AL1" s="28" t="str">
         <f>"Давление настройки, "&amp;'[1]Версия отдела продаж'!C25&amp;" (изб.)"</f>
         <v>Давление настройки,  (изб.)</v>
       </c>
-      <c r="AM1" s="25" t="str">
+      <c r="AM1" s="28" t="str">
         <f>"Давление начала открытия с противодавлением, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление начала открытия с противодавлением, не более (изб.)</v>
       </c>
-      <c r="AN1" s="25" t="str">
+      <c r="AN1" s="28" t="str">
         <f>"Давление полного открытия с противодавлением, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
         <v>Давление полного открытия с противодавлением, (изб.)</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="28" t="s">
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="37" t="s">
+      <c r="AX1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="38" t="s">
+      <c r="AY1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="38" t="s">
+      <c r="AZ1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="38" t="s">
+      <c r="BA1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BB1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1102,13 +1105,13 @@
       <c r="AG2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
       <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1133,12 +1136,12 @@
       <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="34"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="20"/>
     </row>
     <row r="3" spans="1:54" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
@@ -1202,13 +1205,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1221,12 +1223,13 @@
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/ТКП.xlsx
+++ b/code/ТКП.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>№ п/п</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>ЗАО "НПО Регулятор"</t>
+  </si>
+  <si>
+    <t>Давление настройки без противодавления, 0(изб.)</t>
+  </si>
+  <si>
+    <t>Давление начала открытия без противодавления, не более 0(изб.)</t>
+  </si>
+  <si>
+    <t>Давление полного открытия без противодавления, 0(изб.)</t>
+  </si>
+  <si>
+    <t>Противодавление статическое или до срабатывания, 0(изб.)</t>
+  </si>
+  <si>
+    <t>Давление настройки, 0 (изб.)</t>
+  </si>
+  <si>
+    <t>Давление начала открытия с противодавлением, не более 0(изб.)</t>
+  </si>
+  <si>
+    <t>Давление полного открытия с противодавлением, 0(изб.)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,15 +539,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,49 +588,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,9 +641,6 @@
           <cell r="B6">
             <v>1</v>
           </cell>
-        </row>
-        <row r="25">
-          <cell r="C25"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -902,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -912,129 +933,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="28" t="str">
-        <f>"Давление настройки без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Давление настройки без противодавления, (изб.)</v>
-      </c>
-      <c r="AI1" s="28" t="str">
-        <f>"Давление начала открытия без противодавления, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Давление начала открытия без противодавления, не более (изб.)</v>
-      </c>
-      <c r="AJ1" s="28" t="str">
-        <f>"Давление полного открытия без противодавления, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Давление полного открытия без противодавления, (изб.)</v>
-      </c>
-      <c r="AK1" s="35" t="str">
-        <f>"Противодавление статическое или до срабатывания, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Противодавление статическое или до срабатывания, (изб.)</v>
-      </c>
-      <c r="AL1" s="28" t="str">
-        <f>"Давление настройки, "&amp;'[1]Версия отдела продаж'!C25&amp;" (изб.)"</f>
-        <v>Давление настройки,  (изб.)</v>
-      </c>
-      <c r="AM1" s="28" t="str">
-        <f>"Давление начала открытия с противодавлением, не более "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Давление начала открытия с противодавлением, не более (изб.)</v>
-      </c>
-      <c r="AN1" s="28" t="str">
-        <f>"Давление полного открытия с противодавлением, "&amp;'[1]Версия отдела продаж'!C25&amp;"(изб.)"</f>
-        <v>Давление полного открытия с противодавлением, (изб.)</v>
-      </c>
-      <c r="AO1" s="21" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24" t="s">
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="26" t="s">
+      <c r="AX1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AY1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="AZ1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BA1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BB1" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,13 +1119,13 @@
       <c r="AG2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
       <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1136,12 +1150,12 @@
       <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="32"/>
     </row>
     <row r="3" spans="1:54" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
@@ -1205,24 +1219,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:AG1"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="AO1:AV1"/>
     <mergeCell ref="AW1:AW2"/>
@@ -1230,6 +1233,17 @@
     <mergeCell ref="AY1:AY2"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/ТКП.xlsx
+++ b/code/ТКП.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>№ п/п</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Давление полного открытия с противодавлением, 0(изб.)</t>
+  </si>
+  <si>
+    <t>Пилотный предохранительный, сбросной, угловой, открытого типа</t>
   </si>
 </sst>
 </file>
@@ -539,68 +542,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,132 +926,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="84" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="54" width="13.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:54" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="25" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AK1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AL1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AM1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="27" t="s">
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="35" t="s">
+      <c r="AX1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="AY1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="AZ1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BA1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="31" t="s">
+      <c r="BB1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+    <row r="2" spans="1:54" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1119,13 +1122,13 @@
       <c r="AG2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
       <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1150,14 +1153,14 @@
       <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="32"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="24"/>
     </row>
-    <row r="3" spans="1:54" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1190,7 +1193,9 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="11"/>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
@@ -1219,6 +1224,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:AG1"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AH1:AH2"/>
@@ -1226,25 +1249,8 @@
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:AG1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>